--- a/public/files/documents/218-animi-3.xlsx
+++ b/public/files/documents/218-animi-3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cristobalugarte/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01DC67D7-63D7-964A-8810-57964DC30328}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{49973770-E380-F840-AC47-74BBE8542648}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{481020F4-653A-A640-8FB1-4D3DF3D664D1}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Last Name</t>
   </si>
@@ -43,69 +43,6 @@
   </si>
   <si>
     <t>Score</t>
-  </si>
-  <si>
-    <t>Alcayaga Núñez</t>
-  </si>
-  <si>
-    <t>Josefa</t>
-  </si>
-  <si>
-    <t>2.36</t>
-  </si>
-  <si>
-    <t>Araya Cuello</t>
-  </si>
-  <si>
-    <t>Isis</t>
-  </si>
-  <si>
-    <t>3.18</t>
-  </si>
-  <si>
-    <t>Arcaya Méndez</t>
-  </si>
-  <si>
-    <t>Pablo</t>
-  </si>
-  <si>
-    <t>Avendano Puig</t>
-  </si>
-  <si>
-    <t>Carlos</t>
-  </si>
-  <si>
-    <t>5.64</t>
-  </si>
-  <si>
-    <t>CISTERNAS CASTRO</t>
-  </si>
-  <si>
-    <t>DANIELA PAZ</t>
-  </si>
-  <si>
-    <t>5.91</t>
-  </si>
-  <si>
-    <t>Cardenas Figueroa</t>
-  </si>
-  <si>
-    <t>Aylin</t>
-  </si>
-  <si>
-    <t>Cerpa Vielma</t>
-  </si>
-  <si>
-    <t>Antonia</t>
-  </si>
-  <si>
-    <t>Chamorro Torres</t>
-  </si>
-  <si>
-    <t>Laura</t>
-  </si>
-  <si>
-    <t>6.45</t>
   </si>
 </sst>
 </file>
@@ -467,7 +404,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="A2" sqref="A2:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -484,92 +421,44 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1">
-        <v>7</v>
-      </c>
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/files/documents/218-animi-3.xlsx
+++ b/public/files/documents/218-animi-3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cristobalugarte/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{49973770-E380-F840-AC47-74BBE8542648}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01DC67D7-63D7-964A-8810-57964DC30328}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{481020F4-653A-A640-8FB1-4D3DF3D664D1}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t>Last Name</t>
   </si>
@@ -43,6 +43,69 @@
   </si>
   <si>
     <t>Score</t>
+  </si>
+  <si>
+    <t>Alcayaga Núñez</t>
+  </si>
+  <si>
+    <t>Josefa</t>
+  </si>
+  <si>
+    <t>2.36</t>
+  </si>
+  <si>
+    <t>Araya Cuello</t>
+  </si>
+  <si>
+    <t>Isis</t>
+  </si>
+  <si>
+    <t>3.18</t>
+  </si>
+  <si>
+    <t>Arcaya Méndez</t>
+  </si>
+  <si>
+    <t>Pablo</t>
+  </si>
+  <si>
+    <t>Avendano Puig</t>
+  </si>
+  <si>
+    <t>Carlos</t>
+  </si>
+  <si>
+    <t>5.64</t>
+  </si>
+  <si>
+    <t>CISTERNAS CASTRO</t>
+  </si>
+  <si>
+    <t>DANIELA PAZ</t>
+  </si>
+  <si>
+    <t>5.91</t>
+  </si>
+  <si>
+    <t>Cardenas Figueroa</t>
+  </si>
+  <si>
+    <t>Aylin</t>
+  </si>
+  <si>
+    <t>Cerpa Vielma</t>
+  </si>
+  <si>
+    <t>Antonia</t>
+  </si>
+  <si>
+    <t>Chamorro Torres</t>
+  </si>
+  <si>
+    <t>Laura</t>
+  </si>
+  <si>
+    <t>6.45</t>
   </si>
 </sst>
 </file>
@@ -404,7 +467,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C9"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -421,44 +484,92 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1">
+        <v>7</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
+      <c r="A7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
+      <c r="A8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
+      <c r="A9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
